--- a/common/file_templates/list_ss_all.xlsx
+++ b/common/file_templates/list_ss_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\working\aa_dev\common\file_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76307769-D25F-4A8D-AF34-7E8D451C7B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD66B22-7786-4B0D-9444-1F7C8FDD5551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Номер</t>
   </si>
@@ -114,88 +114,94 @@
     <t>Направляющая организация</t>
   </si>
   <si>
-    <t>[list_sub1.fio]</t>
-  </si>
-  <si>
-    <t>[list_sub1.phone]</t>
-  </si>
-  <si>
-    <t>[list_sub1.snils_number]</t>
-  </si>
-  <si>
-    <t>[list_sub1.exam_1]</t>
-  </si>
-  <si>
-    <t>[list_sub1.exam_2]</t>
-  </si>
-  <si>
-    <t>[list_sub1.exam_3]</t>
-  </si>
-  <si>
-    <t>[list_sub1.sum_exams]</t>
-  </si>
-  <si>
-    <t>[list_sub1.sum_individual]</t>
-  </si>
-  <si>
-    <t>[list_sub1.sum_ball]</t>
-  </si>
-  <si>
-    <t>[list_sub1.name_exams]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_first_status]</t>
-  </si>
-  <si>
-    <t>[list_sub1.status_ss]</t>
-  </si>
-  <si>
-    <t>[list_sub1.priority]</t>
-  </si>
-  <si>
-    <t>[list_sub1.priority_ss]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_ss]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_epk]</t>
-  </si>
-  <si>
-    <t>[list_sub1.original]</t>
-  </si>
-  <si>
-    <t>[list_sub1.document]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_paper_original_ss]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_el_original_ss]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_hostel]</t>
-  </si>
-  <si>
-    <t>[list_sub1.quid_profile]</t>
-  </si>
-  <si>
-    <t>[list_sub1.right]</t>
-  </si>
-  <si>
-    <t>[list_sub1.is_pay]</t>
-  </si>
-  <si>
-    <t>[list_sub1.document_target]</t>
-  </si>
-  <si>
-    <t>[list_sub1.organization]</t>
-  </si>
-  <si>
-    <t>[list.name;block=Row+Row+Row;sub1=table]</t>
-  </si>
-  <si>
-    <t>[list_sub1.number;block=row]</t>
+    <t>[list.fio]</t>
+  </si>
+  <si>
+    <t>[list.phone]</t>
+  </si>
+  <si>
+    <t>[list.snils_number]</t>
+  </si>
+  <si>
+    <t>[list.exam_1]</t>
+  </si>
+  <si>
+    <t>[list.exam_2]</t>
+  </si>
+  <si>
+    <t>[list.exam_3]</t>
+  </si>
+  <si>
+    <t>[list.sum_exams]</t>
+  </si>
+  <si>
+    <t>[list.sum_individual]</t>
+  </si>
+  <si>
+    <t>[list.sum_ball]</t>
+  </si>
+  <si>
+    <t>[list.name_exams]</t>
+  </si>
+  <si>
+    <t>[list.is_first_status]</t>
+  </si>
+  <si>
+    <t>[list.status_ss]</t>
+  </si>
+  <si>
+    <t>[list.priority]</t>
+  </si>
+  <si>
+    <t>[list.priority_ss]</t>
+  </si>
+  <si>
+    <t>[list.is_ss]</t>
+  </si>
+  <si>
+    <t>[list.is_epk]</t>
+  </si>
+  <si>
+    <t>[list.original]</t>
+  </si>
+  <si>
+    <t>[list.document]</t>
+  </si>
+  <si>
+    <t>[list.is_paper_original_ss]</t>
+  </si>
+  <si>
+    <t>[list.is_el_original_ss]</t>
+  </si>
+  <si>
+    <t>[list.is_hostel]</t>
+  </si>
+  <si>
+    <t>[list.quid_profile]</t>
+  </si>
+  <si>
+    <t>[list.right]</t>
+  </si>
+  <si>
+    <t>[list.is_pay]</t>
+  </si>
+  <si>
+    <t>[list.document_target]</t>
+  </si>
+  <si>
+    <t>[list.organization]</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>[list.name;block=row]</t>
+  </si>
+  <si>
+    <t>[list.faculty]</t>
+  </si>
+  <si>
+    <t>[list.number]</t>
   </si>
 </sst>
 </file>
@@ -559,216 +565,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.46484375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="36.796875" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.06640625" customWidth="1"/>
-    <col min="7" max="7" width="18.46484375" customWidth="1"/>
-    <col min="8" max="8" width="34.46484375" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="25.19921875" customWidth="1"/>
-    <col min="13" max="13" width="20.19921875" customWidth="1"/>
-    <col min="14" max="14" width="20.73046875" customWidth="1"/>
-    <col min="15" max="15" width="17.46484375" customWidth="1"/>
-    <col min="16" max="16" width="31.9296875" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="22.73046875" customWidth="1"/>
-    <col min="19" max="19" width="25.9296875" customWidth="1"/>
-    <col min="20" max="20" width="23.86328125" customWidth="1"/>
-    <col min="21" max="21" width="25.86328125" customWidth="1"/>
-    <col min="22" max="22" width="22.86328125" customWidth="1"/>
-    <col min="23" max="23" width="28.06640625" customWidth="1"/>
-    <col min="24" max="24" width="27.59765625" customWidth="1"/>
-    <col min="25" max="25" width="24.73046875" customWidth="1"/>
-    <col min="26" max="26" width="32.73046875" customWidth="1"/>
-    <col min="27" max="27" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
+    <col min="3" max="3" width="54.46484375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="36.796875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.06640625" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" customWidth="1"/>
+    <col min="10" max="10" width="34.46484375" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="25.19921875" customWidth="1"/>
+    <col min="15" max="15" width="20.19921875" customWidth="1"/>
+    <col min="16" max="16" width="20.73046875" customWidth="1"/>
+    <col min="17" max="17" width="17.46484375" customWidth="1"/>
+    <col min="18" max="18" width="31.9296875" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="20" width="22.73046875" customWidth="1"/>
+    <col min="21" max="21" width="25.9296875" customWidth="1"/>
+    <col min="22" max="22" width="23.86328125" customWidth="1"/>
+    <col min="23" max="23" width="25.86328125" customWidth="1"/>
+    <col min="24" max="24" width="22.86328125" customWidth="1"/>
+    <col min="25" max="25" width="28.06640625" customWidth="1"/>
+    <col min="26" max="26" width="27.59765625" customWidth="1"/>
+    <col min="27" max="27" width="24.73046875" customWidth="1"/>
+    <col min="28" max="28" width="32.73046875" customWidth="1"/>
+    <col min="29" max="29" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="C7" s="2"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
